--- a/Code/Results/Cases/Case_0_168/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_168/res_line/loading_percent.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>7.267675899599214</v>
+        <v>4.920350755611925</v>
       </c>
       <c r="D2">
-        <v>3.242162796782884</v>
+        <v>4.135355856447947</v>
       </c>
       <c r="E2">
-        <v>30.05748678794611</v>
+        <v>16.52162517355821</v>
       </c>
       <c r="F2">
-        <v>20.98741897685905</v>
+        <v>23.18408403552703</v>
       </c>
       <c r="G2">
-        <v>2.046383970591513</v>
+        <v>3.609790598073208</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>21.80296749359037</v>
+        <v>13.72358049572382</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>11.26313566105931</v>
+        <v>16.29667848184512</v>
       </c>
       <c r="O2">
-        <v>16.07139979034201</v>
+        <v>20.47193895262672</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>6.759473153765685</v>
+        <v>4.749567624056075</v>
       </c>
       <c r="D3">
-        <v>3.196286338716028</v>
+        <v>4.121053021641644</v>
       </c>
       <c r="E3">
-        <v>27.8506253714937</v>
+        <v>15.58156061696597</v>
       </c>
       <c r="F3">
-        <v>20.018965270507</v>
+        <v>23.08901528907493</v>
       </c>
       <c r="G3">
-        <v>2.0534918772843</v>
+        <v>3.612358685666941</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>20.38903912417896</v>
+        <v>13.14297119694198</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>11.3887084138687</v>
+        <v>16.34121424621785</v>
       </c>
       <c r="O3">
-        <v>15.53320769982308</v>
+        <v>20.47306082942276</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>6.430589363920602</v>
+        <v>4.643060145993967</v>
       </c>
       <c r="D4">
-        <v>3.167658115444964</v>
+        <v>4.11223707160597</v>
       </c>
       <c r="E4">
-        <v>26.43393320881615</v>
+        <v>14.97957795359731</v>
       </c>
       <c r="F4">
-        <v>19.4293381915419</v>
+        <v>23.03930896789242</v>
       </c>
       <c r="G4">
-        <v>2.057962968319764</v>
+        <v>3.614016723684896</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>19.47305205557164</v>
+        <v>12.77466503047325</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>11.46951974878862</v>
+        <v>16.37042260430349</v>
       </c>
       <c r="O4">
-        <v>15.21697935660622</v>
+        <v>20.48076765352159</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>6.292284393758359</v>
+        <v>4.599321554243794</v>
       </c>
       <c r="D5">
-        <v>3.155886182842516</v>
+        <v>4.108637312335661</v>
       </c>
       <c r="E5">
-        <v>25.84072262563147</v>
+        <v>14.72830362133381</v>
       </c>
       <c r="F5">
-        <v>19.19060527625065</v>
+        <v>23.02124448453047</v>
       </c>
       <c r="G5">
-        <v>2.059813242668831</v>
+        <v>3.61471288497807</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>19.08769878572943</v>
+        <v>12.62182257761287</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>11.50336990105232</v>
+        <v>16.38279459472487</v>
       </c>
       <c r="O5">
-        <v>15.09174318268804</v>
+        <v>20.4856665469432</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6.269059007258091</v>
+        <v>4.592040904730997</v>
       </c>
       <c r="D6">
-        <v>3.153925379169835</v>
+        <v>4.108039180299733</v>
       </c>
       <c r="E6">
-        <v>25.74124945181267</v>
+        <v>14.6862285725776</v>
       </c>
       <c r="F6">
-        <v>19.15106624998845</v>
+        <v>23.01837751562321</v>
       </c>
       <c r="G6">
-        <v>2.060122226023744</v>
+        <v>3.614829722175771</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>19.0229802609699</v>
+        <v>12.59628365029895</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>11.50904582352559</v>
+        <v>16.38487732642147</v>
       </c>
       <c r="O6">
-        <v>15.0711684494599</v>
+        <v>20.48658598499536</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>6.428741533065409</v>
+        <v>4.642471524612306</v>
       </c>
       <c r="D7">
-        <v>3.167499769498279</v>
+        <v>4.112188551345091</v>
       </c>
       <c r="E7">
-        <v>26.42599782529996</v>
+        <v>14.97621292286132</v>
       </c>
       <c r="F7">
-        <v>19.42611189498461</v>
+        <v>23.03905645864957</v>
       </c>
       <c r="G7">
-        <v>2.057987805515017</v>
+        <v>3.614026029269456</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>19.46790402165534</v>
+        <v>12.77261459319311</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>11.46997256011207</v>
+        <v>16.37058755584182</v>
       </c>
       <c r="O7">
-        <v>15.21527561639265</v>
+        <v>20.48082661211014</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>7.095915356254205</v>
+        <v>4.861851176889172</v>
       </c>
       <c r="D8">
-        <v>3.22644584150495</v>
+        <v>4.130432093457166</v>
       </c>
       <c r="E8">
-        <v>29.30911698725851</v>
+        <v>16.20277977941314</v>
       </c>
       <c r="F8">
-        <v>20.65261553899026</v>
+        <v>23.14951399672527</v>
       </c>
       <c r="G8">
-        <v>2.048813491294629</v>
+        <v>3.610659261391275</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>21.32533406022473</v>
+        <v>13.52595812019063</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>11.30565439409015</v>
+        <v>16.31164819334096</v>
       </c>
       <c r="O8">
-        <v>15.88291147161598</v>
+        <v>20.47086576328111</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>8.272775744790541</v>
+        <v>5.27589143431292</v>
       </c>
       <c r="D9">
-        <v>3.337983400997571</v>
+        <v>4.165879818106048</v>
       </c>
       <c r="E9">
-        <v>34.49282349247972</v>
+        <v>18.49744056464214</v>
       </c>
       <c r="F9">
-        <v>23.0873307180927</v>
+        <v>23.43417899362209</v>
       </c>
       <c r="G9">
-        <v>2.031600468819474</v>
+        <v>3.604698142474206</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>24.59157662797037</v>
+        <v>14.9014477123289</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>11.01358298542276</v>
+        <v>16.21081597262286</v>
       </c>
       <c r="O9">
-        <v>17.30279964393921</v>
+        <v>20.50723730979496</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>9.060502892416054</v>
+        <v>5.566533790561478</v>
       </c>
       <c r="D10">
-        <v>3.416962974543618</v>
+        <v>4.191646386625841</v>
       </c>
       <c r="E10">
-        <v>38.04453196918502</v>
+        <v>20.14641657501729</v>
       </c>
       <c r="F10">
-        <v>24.88442248363167</v>
+        <v>23.68362224432179</v>
       </c>
       <c r="G10">
-        <v>2.019320755198636</v>
+        <v>3.600704635920741</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>26.76776280610192</v>
+        <v>15.84078121051698</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>10.81856211777256</v>
+        <v>16.14567682025541</v>
       </c>
       <c r="O10">
-        <v>18.41138501196644</v>
+        <v>20.56824215504414</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>9.402928904952832</v>
+        <v>5.695156475909801</v>
       </c>
       <c r="D11">
-        <v>3.452159649775519</v>
+        <v>4.20329184352657</v>
       </c>
       <c r="E11">
-        <v>39.61218272213033</v>
+        <v>20.85447156346804</v>
       </c>
       <c r="F11">
-        <v>25.7029251937001</v>
+        <v>23.80552594241502</v>
       </c>
       <c r="G11">
-        <v>2.013786844792942</v>
+        <v>3.598970725321095</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>27.7108113912191</v>
+        <v>16.25113018631928</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>10.73440885995202</v>
+        <v>16.11797533431665</v>
       </c>
       <c r="O11">
-        <v>18.92988332522919</v>
+        <v>20.60344869814123</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>9.530377078395865</v>
+        <v>5.743299510532393</v>
       </c>
       <c r="D12">
-        <v>3.46537628381353</v>
+        <v>4.207689364995182</v>
       </c>
       <c r="E12">
-        <v>40.19963835402594</v>
+        <v>21.11658107441131</v>
       </c>
       <c r="F12">
-        <v>26.02278563157231</v>
+        <v>23.852867898235</v>
       </c>
       <c r="G12">
-        <v>2.011696232264745</v>
+        <v>3.598325961821081</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>28.06132505493738</v>
+        <v>16.40397850135355</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>10.70323009158346</v>
+        <v>16.10776242895233</v>
       </c>
       <c r="O12">
-        <v>19.12830262874602</v>
+        <v>20.61785057603461</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>9.503026482900841</v>
+        <v>5.732956802721037</v>
       </c>
       <c r="D13">
-        <v>3.462534898415853</v>
+        <v>4.206742852777809</v>
       </c>
       <c r="E13">
-        <v>40.07338143152102</v>
+        <v>21.06039809866114</v>
       </c>
       <c r="F13">
-        <v>25.94623326592927</v>
+        <v>23.84262004490043</v>
       </c>
       <c r="G13">
-        <v>2.012146306439542</v>
+        <v>3.598464298098452</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>27.98612658011471</v>
+        <v>16.37117441338799</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>10.70991382938442</v>
+        <v>16.10994964804346</v>
       </c>
       <c r="O13">
-        <v>19.08547623525219</v>
+        <v>20.61470134018847</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>9.413458250654799</v>
+        <v>5.699128777261166</v>
       </c>
       <c r="D14">
-        <v>3.453249259375756</v>
+        <v>4.203653886258087</v>
       </c>
       <c r="E14">
-        <v>39.66063236930823</v>
+        <v>20.87615583476171</v>
       </c>
       <c r="F14">
-        <v>25.72843409525012</v>
+        <v>23.80939734841208</v>
       </c>
       <c r="G14">
-        <v>2.013614765155508</v>
+        <v>3.598917443528873</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>27.73977969089987</v>
+        <v>16.26375658914797</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>10.73182977101709</v>
+        <v>16.11712956323889</v>
       </c>
       <c r="O14">
-        <v>18.9461654800242</v>
+        <v>20.60461212448306</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>9.358307965673312</v>
+        <v>5.678333437775838</v>
       </c>
       <c r="D15">
-        <v>3.447546834096806</v>
+        <v>4.201760152516348</v>
       </c>
       <c r="E15">
-        <v>39.40703019822078</v>
+        <v>20.76251974456583</v>
       </c>
       <c r="F15">
-        <v>25.59504709434377</v>
+        <v>23.7892000975781</v>
       </c>
       <c r="G15">
-        <v>2.014514803464247</v>
+        <v>3.599196546857907</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>27.58803050075455</v>
+        <v>16.19762623901013</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>10.74534457500078</v>
+        <v>16.12156353153102</v>
       </c>
       <c r="O15">
-        <v>18.86110552879193</v>
+        <v>20.59857143296649</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>9.037809932619071</v>
+        <v>5.558051564537267</v>
       </c>
       <c r="D16">
-        <v>3.414647499174742</v>
+        <v>4.190883677703427</v>
       </c>
       <c r="E16">
-        <v>37.94117566998428</v>
+        <v>20.09929985818864</v>
       </c>
       <c r="F16">
-        <v>24.83095071194442</v>
+        <v>23.67582247307809</v>
       </c>
       <c r="G16">
-        <v>2.019683248816265</v>
+        <v>3.600819610374577</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>26.70520057330343</v>
+        <v>15.81361349156376</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>10.82415619437799</v>
+        <v>16.14752597691723</v>
       </c>
       <c r="O16">
-        <v>18.37778764678119</v>
+        <v>20.56609119834584</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>8.837164789383786</v>
+        <v>5.483307258525618</v>
       </c>
       <c r="D17">
-        <v>3.39427259369893</v>
+        <v>4.184190844598014</v>
       </c>
       <c r="E17">
-        <v>37.03010548759023</v>
+        <v>19.68168473264206</v>
       </c>
       <c r="F17">
-        <v>24.36244298352387</v>
+        <v>23.60840597465388</v>
       </c>
       <c r="G17">
-        <v>2.022865573365468</v>
+        <v>3.601836453514804</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>26.15169716889311</v>
+        <v>15.57361193745514</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>10.87369472516747</v>
+        <v>16.16394715971218</v>
       </c>
       <c r="O17">
-        <v>18.08493652399398</v>
+        <v>20.54807409057572</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>8.720256664736171</v>
+        <v>5.439980659305506</v>
       </c>
       <c r="D18">
-        <v>3.382484953955898</v>
+        <v>4.180334247715995</v>
       </c>
       <c r="E18">
-        <v>36.50151141894153</v>
+        <v>19.43752145254371</v>
       </c>
       <c r="F18">
-        <v>24.09305890807688</v>
+        <v>23.57042547402282</v>
       </c>
       <c r="G18">
-        <v>2.024701044211535</v>
+        <v>3.602429108265574</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>25.82891140123931</v>
+        <v>15.43397825480801</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>10.90261527190125</v>
+        <v>16.17357394362401</v>
       </c>
       <c r="O18">
-        <v>17.91782854737488</v>
+        <v>20.5384130723129</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>8.680413589246307</v>
+        <v>5.425254895163467</v>
       </c>
       <c r="D19">
-        <v>3.378482302419325</v>
+        <v>4.179027302566878</v>
       </c>
       <c r="E19">
-        <v>36.32173291987082</v>
+        <v>19.3541704138418</v>
       </c>
       <c r="F19">
-        <v>24.00186621907252</v>
+        <v>23.55770353616082</v>
       </c>
       <c r="G19">
-        <v>2.025323448599865</v>
+        <v>3.602631111634169</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>25.71885746836412</v>
+        <v>15.38643082307079</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>10.91247975010176</v>
+        <v>16.17686464168683</v>
       </c>
       <c r="O19">
-        <v>17.86147704404929</v>
+        <v>20.53526261432931</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>8.858678823846526</v>
+        <v>5.491299014781005</v>
       </c>
       <c r="D20">
-        <v>3.39644867962758</v>
+        <v>4.18490404895698</v>
       </c>
       <c r="E20">
-        <v>37.12755853831609</v>
+        <v>19.7265503876805</v>
       </c>
       <c r="F20">
-        <v>24.4123073486126</v>
+        <v>23.6155004531315</v>
       </c>
       <c r="G20">
-        <v>2.02252630099464</v>
+        <v>3.601727402737732</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>26.21107554176283</v>
+        <v>15.5993259883476</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>10.86837682147902</v>
+        <v>16.16218029028191</v>
       </c>
       <c r="O20">
-        <v>18.11597301853804</v>
+        <v>20.54991940399786</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>9.439826326119929</v>
+        <v>5.709080531422051</v>
       </c>
       <c r="D21">
-        <v>3.455979750704572</v>
+        <v>4.204561537566619</v>
       </c>
       <c r="E21">
-        <v>39.78202818310381</v>
+        <v>20.93043524068451</v>
       </c>
       <c r="F21">
-        <v>25.79240244434115</v>
+        <v>23.81912391811318</v>
       </c>
       <c r="G21">
-        <v>2.013183330494975</v>
+        <v>3.598784023197424</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>27.81231555309924</v>
+        <v>16.29537754063675</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>10.7253735713949</v>
+        <v>16.11501313361146</v>
       </c>
       <c r="O21">
-        <v>18.9870276450341</v>
+        <v>20.60754655939306</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>9.806729039083955</v>
+        <v>5.848110341199933</v>
       </c>
       <c r="D22">
-        <v>3.494234163043331</v>
+        <v>4.217336130351911</v>
       </c>
       <c r="E22">
-        <v>41.48127216696455</v>
+        <v>21.68219620283627</v>
       </c>
       <c r="F22">
-        <v>26.80487188549088</v>
+        <v>23.95906255092576</v>
       </c>
       <c r="G22">
-        <v>2.007104647203307</v>
+        <v>3.59692928160653</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>28.82044063680571</v>
+        <v>16.7354339275301</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>10.63594238478825</v>
+        <v>16.08580125899585</v>
       </c>
       <c r="O22">
-        <v>19.58110041433281</v>
+        <v>20.65144341647732</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>9.612063653745901</v>
+        <v>5.774223872020617</v>
       </c>
       <c r="D23">
-        <v>3.473878607679698</v>
+        <v>4.21052521967101</v>
       </c>
       <c r="E23">
-        <v>40.5773436077265</v>
+        <v>21.28416274900769</v>
       </c>
       <c r="F23">
-        <v>26.25295540601365</v>
+        <v>23.88375858690698</v>
       </c>
       <c r="G23">
-        <v>2.010347365629452</v>
+        <v>3.597912908088974</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>28.2858431328067</v>
+        <v>16.50195679561365</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>10.68329301025929</v>
+        <v>16.10124463478961</v>
       </c>
       <c r="O23">
-        <v>19.25700294207034</v>
+        <v>20.62744553912198</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>8.848957175992425</v>
+        <v>5.487687044231699</v>
       </c>
       <c r="D24">
-        <v>3.395465100667481</v>
+        <v>4.184581636538844</v>
       </c>
       <c r="E24">
-        <v>37.08351504253683</v>
+        <v>19.70627930760945</v>
       </c>
       <c r="F24">
-        <v>24.38976377095078</v>
+        <v>23.61229061310861</v>
       </c>
       <c r="G24">
-        <v>2.022679667436708</v>
+        <v>3.601776679488712</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>26.18424482257293</v>
+        <v>15.58770580849445</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>10.87077967704108</v>
+        <v>16.16297851243684</v>
       </c>
       <c r="O24">
-        <v>18.10193750909747</v>
+        <v>20.54908296574273</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>7.968156359217822</v>
+        <v>5.16601981502649</v>
       </c>
       <c r="D25">
-        <v>3.308297552061159</v>
+        <v>4.156333317682551</v>
       </c>
       <c r="E25">
-        <v>33.13793503934443</v>
+        <v>17.85265245399885</v>
       </c>
       <c r="F25">
-        <v>22.42672454868703</v>
+        <v>23.34999252014823</v>
       </c>
       <c r="G25">
-        <v>2.036184223683567</v>
+        <v>3.606242636356533</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>23.74770348328185</v>
+        <v>14.54127465749413</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>11.08925676473837</v>
+        <v>16.2365200188154</v>
       </c>
       <c r="O25">
-        <v>16.90710367184134</v>
+        <v>20.49138572767788</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_168/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_168/res_line/loading_percent.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.920350755611925</v>
+        <v>7.267675899599323</v>
       </c>
       <c r="D2">
-        <v>4.135355856447947</v>
+        <v>3.242162796782992</v>
       </c>
       <c r="E2">
-        <v>16.52162517355821</v>
+        <v>30.05748678794609</v>
       </c>
       <c r="F2">
-        <v>23.18408403552703</v>
+        <v>20.98741897685905</v>
       </c>
       <c r="G2">
-        <v>3.609790598073208</v>
+        <v>2.046383970591513</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>13.72358049572382</v>
+        <v>21.80296749359035</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>16.29667848184512</v>
+        <v>11.26313566105931</v>
       </c>
       <c r="O2">
-        <v>20.47193895262672</v>
+        <v>16.07139979034202</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.749567624056075</v>
+        <v>6.759473153765777</v>
       </c>
       <c r="D3">
-        <v>4.121053021641644</v>
+        <v>3.196286338716023</v>
       </c>
       <c r="E3">
-        <v>15.58156061696597</v>
+        <v>27.85062537149371</v>
       </c>
       <c r="F3">
-        <v>23.08901528907493</v>
+        <v>20.01896527050701</v>
       </c>
       <c r="G3">
-        <v>3.612358685666941</v>
+        <v>2.053491877284167</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>13.14297119694198</v>
+        <v>20.38903912417895</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>16.34121424621785</v>
+        <v>11.3887084138687</v>
       </c>
       <c r="O3">
-        <v>20.47306082942276</v>
+        <v>15.53320769982308</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>4.643060145993967</v>
+        <v>6.430589363920512</v>
       </c>
       <c r="D4">
-        <v>4.11223707160597</v>
+        <v>3.16765811544479</v>
       </c>
       <c r="E4">
-        <v>14.97957795359731</v>
+        <v>26.43393320881614</v>
       </c>
       <c r="F4">
-        <v>23.03930896789242</v>
+        <v>19.42933819154183</v>
       </c>
       <c r="G4">
-        <v>3.614016723684896</v>
+        <v>2.057962968319764</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>12.77466503047325</v>
+        <v>19.47305205557178</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>16.37042260430349</v>
+        <v>11.46951974878851</v>
       </c>
       <c r="O4">
-        <v>20.48076765352159</v>
+        <v>15.21697935660606</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>4.599321554243794</v>
+        <v>6.292284393758417</v>
       </c>
       <c r="D5">
-        <v>4.108637312335661</v>
+        <v>3.155886182842578</v>
       </c>
       <c r="E5">
-        <v>14.72830362133381</v>
+        <v>25.84072262563147</v>
       </c>
       <c r="F5">
-        <v>23.02124448453047</v>
+        <v>19.1906052762505</v>
       </c>
       <c r="G5">
-        <v>3.61471288497807</v>
+        <v>2.059813242668697</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>12.62182257761287</v>
+        <v>19.08769878572951</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>16.38279459472487</v>
+        <v>11.50336990105232</v>
       </c>
       <c r="O5">
-        <v>20.4856665469432</v>
+        <v>15.09174318268789</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4.592040904730997</v>
+        <v>6.269059007258108</v>
       </c>
       <c r="D6">
-        <v>4.108039180299733</v>
+        <v>3.153925379169664</v>
       </c>
       <c r="E6">
-        <v>14.6862285725776</v>
+        <v>25.74124945181266</v>
       </c>
       <c r="F6">
-        <v>23.01837751562321</v>
+        <v>19.15106624998841</v>
       </c>
       <c r="G6">
-        <v>3.614829722175771</v>
+        <v>2.060122226023743</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>12.59628365029895</v>
+        <v>19.02298026096991</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>16.38487732642147</v>
+        <v>11.50904582352564</v>
       </c>
       <c r="O6">
-        <v>20.48658598499536</v>
+        <v>15.07116844945985</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>4.642471524612306</v>
+        <v>6.428741533065482</v>
       </c>
       <c r="D7">
-        <v>4.112188551345091</v>
+        <v>3.167499769498052</v>
       </c>
       <c r="E7">
-        <v>14.97621292286132</v>
+        <v>26.42599782529996</v>
       </c>
       <c r="F7">
-        <v>23.03905645864957</v>
+        <v>19.4261118949846</v>
       </c>
       <c r="G7">
-        <v>3.614026029269456</v>
+        <v>2.057987805515151</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>12.77261459319311</v>
+        <v>19.46790402165538</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>16.37058755584182</v>
+        <v>11.46997256011201</v>
       </c>
       <c r="O7">
-        <v>20.48082661211014</v>
+        <v>15.21527561639259</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>4.861851176889172</v>
+        <v>7.095915356254238</v>
       </c>
       <c r="D8">
-        <v>4.130432093457166</v>
+        <v>3.226445841505184</v>
       </c>
       <c r="E8">
-        <v>16.20277977941314</v>
+        <v>29.30911698725854</v>
       </c>
       <c r="F8">
-        <v>23.14951399672527</v>
+        <v>20.65261553899026</v>
       </c>
       <c r="G8">
-        <v>3.610659261391275</v>
+        <v>2.048813491294495</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>13.52595812019063</v>
+        <v>21.32533406022471</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>16.31164819334096</v>
+        <v>11.30565439409019</v>
       </c>
       <c r="O8">
-        <v>20.47086576328111</v>
+        <v>15.88291147161601</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>5.27589143431292</v>
+        <v>8.272775744790412</v>
       </c>
       <c r="D9">
-        <v>4.165879818106048</v>
+        <v>3.337983400997695</v>
       </c>
       <c r="E9">
-        <v>18.49744056464214</v>
+        <v>34.49282349247967</v>
       </c>
       <c r="F9">
-        <v>23.43417899362209</v>
+        <v>23.08733071809266</v>
       </c>
       <c r="G9">
-        <v>3.604698142474206</v>
+        <v>2.031600468819474</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>14.9014477123289</v>
+        <v>24.59157662797033</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>16.21081597262286</v>
+        <v>11.01358298542276</v>
       </c>
       <c r="O9">
-        <v>20.50723730979496</v>
+        <v>17.30279964393918</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>5.566533790561478</v>
+        <v>9.06050289241603</v>
       </c>
       <c r="D10">
-        <v>4.191646386625841</v>
+        <v>3.416962974543581</v>
       </c>
       <c r="E10">
-        <v>20.14641657501729</v>
+        <v>38.04453196918519</v>
       </c>
       <c r="F10">
-        <v>23.68362224432179</v>
+        <v>24.88442248363164</v>
       </c>
       <c r="G10">
-        <v>3.600704635920741</v>
+        <v>2.019320755198634</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>15.84078121051698</v>
+        <v>26.76776280610195</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>16.14567682025541</v>
+        <v>10.81856211777253</v>
       </c>
       <c r="O10">
-        <v>20.56824215504414</v>
+        <v>18.4113850119664</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>5.695156475909801</v>
+        <v>9.402928904952972</v>
       </c>
       <c r="D11">
-        <v>4.20329184352657</v>
+        <v>3.452159649775436</v>
       </c>
       <c r="E11">
-        <v>20.85447156346804</v>
+        <v>39.61218272213042</v>
       </c>
       <c r="F11">
-        <v>23.80552594241502</v>
+        <v>25.70292519370012</v>
       </c>
       <c r="G11">
-        <v>3.598970725321095</v>
+        <v>2.013786844792809</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>16.25113018631928</v>
+        <v>27.71081139121915</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>16.11797533431665</v>
+        <v>10.73440885995202</v>
       </c>
       <c r="O11">
-        <v>20.60344869814123</v>
+        <v>18.92988332522918</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>5.743299510532393</v>
+        <v>9.530377078395773</v>
       </c>
       <c r="D12">
-        <v>4.207689364995182</v>
+        <v>3.465376283813577</v>
       </c>
       <c r="E12">
-        <v>21.11658107441131</v>
+        <v>40.19963835402591</v>
       </c>
       <c r="F12">
-        <v>23.852867898235</v>
+        <v>26.02278563157224</v>
       </c>
       <c r="G12">
-        <v>3.598325961821081</v>
+        <v>2.011696232265011</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>16.40397850135355</v>
+        <v>28.06132505493731</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>16.10776242895233</v>
+        <v>10.70323009158347</v>
       </c>
       <c r="O12">
-        <v>20.61785057603461</v>
+        <v>19.12830262874598</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>5.732956802721037</v>
+        <v>9.503026482900864</v>
       </c>
       <c r="D13">
-        <v>4.206742852777809</v>
+        <v>3.462534898415954</v>
       </c>
       <c r="E13">
-        <v>21.06039809866114</v>
+        <v>40.07338143152111</v>
       </c>
       <c r="F13">
-        <v>23.84262004490043</v>
+        <v>25.94623326592929</v>
       </c>
       <c r="G13">
-        <v>3.598464298098452</v>
+        <v>2.012146306439544</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>16.37117441338799</v>
+        <v>27.98612658011476</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>16.10994964804346</v>
+        <v>10.70991382938435</v>
       </c>
       <c r="O13">
-        <v>20.61470134018847</v>
+        <v>19.08547623525219</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>5.699128777261166</v>
+        <v>9.413458250654836</v>
       </c>
       <c r="D14">
-        <v>4.203653886258087</v>
+        <v>3.453249259375645</v>
       </c>
       <c r="E14">
-        <v>20.87615583476171</v>
+        <v>39.66063236930829</v>
       </c>
       <c r="F14">
-        <v>23.80939734841208</v>
+        <v>25.72843409525012</v>
       </c>
       <c r="G14">
-        <v>3.598917443528873</v>
+        <v>2.013614765155372</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>16.26375658914797</v>
+        <v>27.73977969089992</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>16.11712956323889</v>
+        <v>10.73182977101709</v>
       </c>
       <c r="O14">
-        <v>20.60461212448306</v>
+        <v>18.9461654800242</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>5.678333437775838</v>
+        <v>9.358307965673319</v>
       </c>
       <c r="D15">
-        <v>4.201760152516348</v>
+        <v>3.447546834096913</v>
       </c>
       <c r="E15">
-        <v>20.76251974456583</v>
+        <v>39.40703019822078</v>
       </c>
       <c r="F15">
-        <v>23.7892000975781</v>
+        <v>25.59504709434376</v>
       </c>
       <c r="G15">
-        <v>3.599196546857907</v>
+        <v>2.014514803464114</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>16.19762623901013</v>
+        <v>27.58803050075455</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>16.12156353153102</v>
+        <v>10.74534457500078</v>
       </c>
       <c r="O15">
-        <v>20.59857143296649</v>
+        <v>18.86110552879192</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>5.558051564537267</v>
+        <v>9.037809932619085</v>
       </c>
       <c r="D16">
-        <v>4.190883677703427</v>
+        <v>3.414647499174753</v>
       </c>
       <c r="E16">
-        <v>20.09929985818864</v>
+        <v>37.94117566998423</v>
       </c>
       <c r="F16">
-        <v>23.67582247307809</v>
+        <v>24.8309507119444</v>
       </c>
       <c r="G16">
-        <v>3.600819610374577</v>
+        <v>2.019683248816133</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>15.81361349156376</v>
+        <v>26.70520057330349</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>16.14752597691723</v>
+        <v>10.82415619437791</v>
       </c>
       <c r="O16">
-        <v>20.56609119834584</v>
+        <v>18.37778764678114</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>5.483307258525618</v>
+        <v>8.837164789383751</v>
       </c>
       <c r="D17">
-        <v>4.184190844598014</v>
+        <v>3.394272593698808</v>
       </c>
       <c r="E17">
-        <v>19.68168473264206</v>
+        <v>37.03010548759026</v>
       </c>
       <c r="F17">
-        <v>23.60840597465388</v>
+        <v>24.36244298352387</v>
       </c>
       <c r="G17">
-        <v>3.601836453514804</v>
+        <v>2.022865573365601</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>15.57361193745514</v>
+        <v>26.15169716889321</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>16.16394715971218</v>
+        <v>10.8736947251674</v>
       </c>
       <c r="O17">
-        <v>20.54807409057572</v>
+        <v>18.08493652399397</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>5.439980659305506</v>
+        <v>8.720256664736162</v>
       </c>
       <c r="D18">
-        <v>4.180334247715995</v>
+        <v>3.382484953955909</v>
       </c>
       <c r="E18">
-        <v>19.43752145254371</v>
+        <v>36.50151141894148</v>
       </c>
       <c r="F18">
-        <v>23.57042547402282</v>
+        <v>24.09305890807687</v>
       </c>
       <c r="G18">
-        <v>3.602429108265574</v>
+        <v>2.024701044211403</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>15.43397825480801</v>
+        <v>25.82891140123939</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>16.17357394362401</v>
+        <v>10.90261527190116</v>
       </c>
       <c r="O18">
-        <v>20.5384130723129</v>
+        <v>17.91782854737485</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>5.425254895163467</v>
+        <v>8.68041358924633</v>
       </c>
       <c r="D19">
-        <v>4.179027302566878</v>
+        <v>3.378482302419331</v>
       </c>
       <c r="E19">
-        <v>19.3541704138418</v>
+        <v>36.32173291987078</v>
       </c>
       <c r="F19">
-        <v>23.55770353616082</v>
+        <v>24.00186621907256</v>
       </c>
       <c r="G19">
-        <v>3.602631111634169</v>
+        <v>2.025323448599732</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>15.38643082307079</v>
+        <v>25.71885746836415</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>16.17686464168683</v>
+        <v>10.91247975010179</v>
       </c>
       <c r="O19">
-        <v>20.53526261432931</v>
+        <v>17.86147704404933</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>5.491299014781005</v>
+        <v>8.858678823846617</v>
       </c>
       <c r="D20">
-        <v>4.18490404895698</v>
+        <v>3.396448679627591</v>
       </c>
       <c r="E20">
-        <v>19.7265503876805</v>
+        <v>37.12755853831605</v>
       </c>
       <c r="F20">
-        <v>23.6155004531315</v>
+        <v>24.41230734861264</v>
       </c>
       <c r="G20">
-        <v>3.601727402737732</v>
+        <v>2.022526300994642</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>15.5993259883476</v>
+        <v>26.21107554176278</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>16.16218029028191</v>
+        <v>10.86837682147905</v>
       </c>
       <c r="O20">
-        <v>20.54991940399786</v>
+        <v>18.11597301853809</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>5.709080531422051</v>
+        <v>9.439826326119881</v>
       </c>
       <c r="D21">
-        <v>4.204561537566619</v>
+        <v>3.455979750704607</v>
       </c>
       <c r="E21">
-        <v>20.93043524068451</v>
+        <v>39.78202818310378</v>
       </c>
       <c r="F21">
-        <v>23.81912391811318</v>
+        <v>25.79240244434114</v>
       </c>
       <c r="G21">
-        <v>3.598784023197424</v>
+        <v>2.01318333049524</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>16.29537754063675</v>
+        <v>27.81231555309928</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>16.11501313361146</v>
+        <v>10.72537357139487</v>
       </c>
       <c r="O21">
-        <v>20.60754655939306</v>
+        <v>18.98702764503408</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>5.848110341199933</v>
+        <v>9.806729039084006</v>
       </c>
       <c r="D22">
-        <v>4.217336130351911</v>
+        <v>3.494234163043297</v>
       </c>
       <c r="E22">
-        <v>21.68219620283627</v>
+        <v>41.48127216696464</v>
       </c>
       <c r="F22">
-        <v>23.95906255092576</v>
+        <v>26.80487188549082</v>
       </c>
       <c r="G22">
-        <v>3.59692928160653</v>
+        <v>2.007104647203306</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>16.7354339275301</v>
+        <v>28.82044063680568</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>16.08580125899585</v>
+        <v>10.63594238478827</v>
       </c>
       <c r="O22">
-        <v>20.65144341647732</v>
+        <v>19.58110041433276</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>5.774223872020617</v>
+        <v>9.612063653745901</v>
       </c>
       <c r="D23">
-        <v>4.21052521967101</v>
+        <v>3.473878607679855</v>
       </c>
       <c r="E23">
-        <v>21.28416274900769</v>
+        <v>40.5773436077265</v>
       </c>
       <c r="F23">
-        <v>23.88375858690698</v>
+        <v>26.25295540601362</v>
       </c>
       <c r="G23">
-        <v>3.597912908088974</v>
+        <v>2.010347365629318</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>16.50195679561365</v>
+        <v>28.28584313280665</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>16.10124463478961</v>
+        <v>10.68329301025927</v>
       </c>
       <c r="O23">
-        <v>20.62744553912198</v>
+        <v>19.2570029420703</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>5.487687044231699</v>
+        <v>8.848957175992499</v>
       </c>
       <c r="D24">
-        <v>4.184581636538844</v>
+        <v>3.39546510066747</v>
       </c>
       <c r="E24">
-        <v>19.70627930760945</v>
+        <v>37.08351504253699</v>
       </c>
       <c r="F24">
-        <v>23.61229061310861</v>
+        <v>24.3897637709508</v>
       </c>
       <c r="G24">
-        <v>3.601776679488712</v>
+        <v>2.022679667436841</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>15.58770580849445</v>
+        <v>26.18424482257304</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>16.16297851243684</v>
+        <v>10.87077967704101</v>
       </c>
       <c r="O24">
-        <v>20.54908296574273</v>
+        <v>18.10193750909746</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>5.16601981502649</v>
+        <v>7.968156359217867</v>
       </c>
       <c r="D25">
-        <v>4.156333317682551</v>
+        <v>3.30829755206117</v>
       </c>
       <c r="E25">
-        <v>17.85265245399885</v>
+        <v>33.13793503934449</v>
       </c>
       <c r="F25">
-        <v>23.34999252014823</v>
+        <v>22.42672454868698</v>
       </c>
       <c r="G25">
-        <v>3.606242636356533</v>
+        <v>2.036184223683303</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>14.54127465749413</v>
+        <v>23.74770348328192</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>16.2365200188154</v>
+        <v>11.08925676473831</v>
       </c>
       <c r="O25">
-        <v>20.49138572767788</v>
+        <v>16.90710367184126</v>
       </c>
     </row>
   </sheetData>
